--- a/pm10/_01processing/_01code/_00-5missing_sigungu.xlsx
+++ b/pm10/_01processing/_01code/_00-5missing_sigungu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="26955" windowHeight="12945"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="26955" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="118">
   <si>
     <t>1. SIGUNGU 매칭했을 때 값이 없는 지역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,24 +40,12 @@
     <t>양주군</t>
   </si>
   <si>
-    <t>양주시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여주군</t>
   </si>
   <si>
-    <t>여주시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포천군</t>
   </si>
   <si>
-    <t>포천시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>충북</t>
   </si>
   <si>
@@ -73,10 +61,6 @@
     <t>당진군</t>
   </si>
   <si>
-    <t>당진시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경남</t>
   </si>
   <si>
@@ -86,10 +70,6 @@
     <t>진해시</t>
   </si>
   <si>
-    <t>창원시 진해구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제주</t>
   </si>
   <si>
@@ -394,6 +374,54 @@
   </si>
   <si>
     <t>emission data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003년 양주시로 승격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013년 여주시로 승격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003년 포천시로 승격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012년 당진시로 승격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010년 창원시 진해구가 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상당구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥덕구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주시로 합해지면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014년 상당구, 흥덕구, 청원구, 서원구로 나누어짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,23 +553,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -552,17 +586,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -885,12 +916,12 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -899,198 +930,198 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1101,122 +1132,198 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="D28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
+  <mergeCells count="25">
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="D20:G20"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1234,761 +1341,761 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>57</v>
+        <v>86</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>31</v>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>73</v>
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>31</v>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>31</v>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>51</v>
+        <v>86</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>31</v>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>52</v>
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>27</v>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>47</v>
+        <v>86</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>27</v>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>86</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>50</v>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>50</v>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>46</v>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>46</v>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>46</v>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>46</v>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>69</v>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>69</v>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>54</v>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>54</v>
+      <c r="E20" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>64</v>
+        <v>89</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>75</v>
+      <c r="E21" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>75</v>
+      <c r="E22" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>75</v>
+      <c r="E23" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>79</v>
+        <v>88</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>59</v>
+        <v>87</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>60</v>
+        <v>87</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="12" t="s">
         <v>87</v>
       </c>
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>67</v>
+        <v>90</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>68</v>
+        <v>90</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
